--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il5-Il5ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il5-Il5ra.xlsx
@@ -558,10 +558,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.007322794591666667</v>
+        <v>0.007322794591666668</v>
       </c>
       <c r="R2">
-        <v>0.06590515132499999</v>
+        <v>0.06590515132500001</v>
       </c>
       <c r="S2">
         <v>1</v>
